--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,36 +449,6 @@
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Processing Time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ROC AUC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Memory Usage</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,24 +464,6 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.0206162929534912</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,293 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Custom AI Model</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.009204864501953101</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
         <v>0.9665831244778612</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1120295524597168</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9933333333333332</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.88671875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9696969696969696</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DecisionTree</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0281538963317871</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7734375</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2764220237731933</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>KNN</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9665831244778612</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0200996398925781</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9696969696969696</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LogReg</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0265321731567382</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GradientBoost</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9665831244778612</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1955735683441162</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9741666666666668</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.12890625</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9696969696969696</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9666666666666668</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.077242374420166</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.50390625</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>No Technique</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Custom AI Model</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0213708877563476</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7109375</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results table/results.xlsx
+++ b/results table/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,1351 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No Technique</t>
+          <t>PCA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>LogReg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.7248761873198307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>No Technique</t>
+          <t>PCA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Custom AI Model</t>
+          <t>LogReg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9665831244778612</v>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7224965311632791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7172667275547994</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7274284468368438</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7262487167788296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7187486816385651</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7199894997374935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7012037783705982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7071668731696329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7074890306329732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7112432323267046</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7086612285569146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6999962499062476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7099963749093726</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.822437850140056</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8336993278887109</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8437463378391259</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.847480934521019</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8337336326941379</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8612467479198407</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8424940934177547</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8374796854685468</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8398678810929837</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8699837474605406</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8535708368340272</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8524889363936393</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8374695243929884</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8511571997266867</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8387411809654176</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7986483857554427</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7961687816842293</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7886658004767301</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7962299408206351</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7936871416045799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7999749974997501</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7912385835384194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8086917080223516</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7699568682606658</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.7937503222661286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7937451659476461</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7962452244228291</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7935942169386884</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.798745283136794</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8087311723866358</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.7124892181435206</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.7149786228622861</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.7337237890088459</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.7062486230275113</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.7137486581842558</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.7249656196280668</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6983262015307361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7174964686617165</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.687417950288815</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6846925502562081</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7385870146460295</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6899883747093676</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.7249656196280668</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6923615549121743</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8149976874855467</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8137456347042381</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.8149167078333406</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.822466713548992</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8136757574904918</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.8161939939822593</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8099857485748575</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8162456931911403</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8024851860186019</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8137502910160797</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8049122055540618</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8237227311726124</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.831246044866256</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8124155822635208</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8062394038829642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.7987188652001269</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.806249091795456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7737489394382108</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7861420743116814</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.7673080423320136</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7762153842908242</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7824728082512894</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7897240369452579</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7948307470024207</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7711988790068122</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7749718721872187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7862289573732988</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7575</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7974291032878819</v>
       </c>
     </row>
   </sheetData>
